--- a/Xports/UD_French-ParTUT/VERB-no-direct-obj.xlsx
+++ b/Xports/UD_French-ParTUT/VERB-no-direct-obj.xlsx
@@ -16443,7 +16443,7 @@
         <v>5089</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -30308,7 +30308,7 @@
         <v>5089</v>
       </c>
       <c r="O312">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:15">
@@ -30731,7 +30731,7 @@
         <v>5090</v>
       </c>
       <c r="O321">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:15">
@@ -30778,7 +30778,7 @@
         <v>5089</v>
       </c>
       <c r="O322">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:15">
@@ -32329,7 +32329,7 @@
         <v>5089</v>
       </c>
       <c r="O355">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:15">
@@ -69623,7 +69623,7 @@
         <v>5089</v>
       </c>
       <c r="O1149">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1150" spans="1:15">
